--- a/back-end/excelSheets/excelFormats/faculty_patent.xlsx
+++ b/back-end/excelSheets/excelFormats/faculty_patent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>slNO</t>
   </si>
@@ -73,6 +73,81 @@
   </si>
   <si>
     <t>patent13</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>14/05/2013</t>
+  </si>
+  <si>
+    <t>13/06/2013</t>
+  </si>
+  <si>
+    <t>15/08/2013</t>
+  </si>
+  <si>
+    <t>13/06/2014</t>
+  </si>
+  <si>
+    <t>13/06/2015</t>
+  </si>
+  <si>
+    <t>17/07/2013</t>
+  </si>
+  <si>
+    <t>19/09/2013</t>
+  </si>
+  <si>
+    <t>22/11/2013</t>
+  </si>
+  <si>
+    <t>25/01/2014</t>
+  </si>
+  <si>
+    <t>30/03/2014</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>13/02/2015</t>
+  </si>
+  <si>
+    <t>18/04/2015</t>
+  </si>
+  <si>
+    <t>13/09/2013</t>
+  </si>
+  <si>
+    <t>15/12/2013</t>
+  </si>
+  <si>
+    <t>23/02/2014</t>
+  </si>
+  <si>
+    <t>17/04/2014</t>
+  </si>
+  <si>
+    <t>13/11/2014</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>24/03/2015</t>
+  </si>
+  <si>
+    <t>15/06/2015</t>
   </si>
 </sst>
 </file>
@@ -110,7 +185,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -416,7 +491,7 @@
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -431,7 +506,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -451,11 +526,11 @@
       <c r="C2">
         <v>1523</v>
       </c>
-      <c r="D2" s="1">
-        <v>41344</v>
-      </c>
-      <c r="E2" s="1">
-        <v>41438</v>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -471,11 +546,11 @@
       <c r="C3">
         <v>1634</v>
       </c>
-      <c r="D3" s="1">
-        <v>41408</v>
-      </c>
-      <c r="E3" s="1">
-        <v>41501</v>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -491,11 +566,11 @@
       <c r="C4">
         <v>1745</v>
       </c>
-      <c r="D4" s="1">
-        <v>41472</v>
-      </c>
-      <c r="E4" s="1">
-        <v>41564</v>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -511,11 +586,11 @@
       <c r="C5">
         <v>1856</v>
       </c>
-      <c r="D5" s="1">
-        <v>41536</v>
-      </c>
-      <c r="E5" s="1">
-        <v>41627</v>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -531,11 +606,11 @@
       <c r="C6">
         <v>1967</v>
       </c>
-      <c r="D6" s="1">
-        <v>41600</v>
-      </c>
-      <c r="E6" s="1">
-        <v>41690</v>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -551,11 +626,11 @@
       <c r="C7">
         <v>2078</v>
       </c>
-      <c r="D7" s="1">
-        <v>41664</v>
-      </c>
-      <c r="E7" s="1">
-        <v>41753</v>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -571,11 +646,11 @@
       <c r="C8">
         <v>2189</v>
       </c>
-      <c r="D8" s="1">
-        <v>41728</v>
-      </c>
-      <c r="E8" s="1">
-        <v>41816</v>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F8">
         <v>16</v>
@@ -591,11 +666,11 @@
       <c r="C9">
         <v>2300</v>
       </c>
-      <c r="D9" s="1">
-        <v>41792</v>
-      </c>
-      <c r="E9" s="1">
-        <v>41879</v>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F9">
         <v>18</v>
@@ -611,11 +686,11 @@
       <c r="C10">
         <v>2411</v>
       </c>
-      <c r="D10" s="1">
-        <v>41856</v>
-      </c>
-      <c r="E10" s="1">
-        <v>41942</v>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -631,11 +706,11 @@
       <c r="C11">
         <v>2522</v>
       </c>
-      <c r="D11" s="1">
-        <v>41920</v>
-      </c>
-      <c r="E11" s="1">
-        <v>42005</v>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -651,11 +726,11 @@
       <c r="C12">
         <v>2633</v>
       </c>
-      <c r="D12" s="1">
-        <v>41984</v>
-      </c>
-      <c r="E12" s="1">
-        <v>42068</v>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -671,11 +746,11 @@
       <c r="C13">
         <v>2744</v>
       </c>
-      <c r="D13" s="1">
-        <v>42048</v>
-      </c>
-      <c r="E13" s="1">
-        <v>42131</v>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -691,42 +766,15 @@
       <c r="C14">
         <v>2855</v>
       </c>
-      <c r="D14" s="1">
-        <v>42112</v>
-      </c>
-      <c r="E14" s="1">
-        <v>42194</v>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
